--- a/mastercc.xlsx
+++ b/mastercc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/copernic/Documents/mastercard comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42FECF2-5756-3C4A-A078-5EF4DEDEAACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2C979736-8E4A-174A-8CEB-5029D19B91AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{C4449251-6BCA-8C4C-BC0D-51709E7B534E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="17100" windowHeight="21380" xr2:uid="{C4449251-6BCA-8C4C-BC0D-51709E7B534E}"/>
   </bookViews>
   <sheets>
     <sheet name="robenson_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Commercial Diversity</t>
+  </si>
+  <si>
+    <t>Affordable Housing</t>
   </si>
 </sst>
 </file>
@@ -925,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2FBBBE-560F-4942-B2B2-69D64A49E367}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1337,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2ABEB5-BE8D-9740-A134-B82E1C04E5E2}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="A1:N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
